--- a/每週買賣報表/權重買進/權重買進部位表2023-03-16.xlsx
+++ b/每週買賣報表/權重買進/權重買進部位表2023-03-16.xlsx
@@ -14,57 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>買進部位</t>
   </si>
   <si>
-    <t>2204</t>
+    <t>2377</t>
+  </si>
+  <si>
+    <t>6643</t>
+  </si>
+  <si>
+    <t>6449</t>
+  </si>
+  <si>
+    <t>6282</t>
+  </si>
+  <si>
+    <t>5903</t>
+  </si>
+  <si>
+    <t>5607</t>
+  </si>
+  <si>
+    <t>5478</t>
+  </si>
+  <si>
+    <t>5209</t>
+  </si>
+  <si>
+    <t>4967</t>
+  </si>
+  <si>
+    <t>6776</t>
+  </si>
+  <si>
+    <t>4417</t>
+  </si>
+  <si>
+    <t>3218</t>
+  </si>
+  <si>
+    <t>3078</t>
+  </si>
+  <si>
+    <t>3056</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>3015</t>
   </si>
   <si>
     <t>2546</t>
   </si>
   <si>
-    <t>3015</t>
-  </si>
-  <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>3038</t>
-  </si>
-  <si>
-    <t>3056</t>
-  </si>
-  <si>
-    <t>3078</t>
-  </si>
-  <si>
-    <t>3218</t>
-  </si>
-  <si>
-    <t>4417</t>
-  </si>
-  <si>
-    <t>5209</t>
-  </si>
-  <si>
-    <t>5607</t>
-  </si>
-  <si>
-    <t>5903</t>
+    <t>2457</t>
+  </si>
+  <si>
+    <t>3661</t>
   </si>
   <si>
     <t>8926</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>2433</t>
-  </si>
-  <si>
-    <t>6175</t>
   </si>
 </sst>
 </file>
@@ -422,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -550,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -558,7 +573,47 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
